--- a/Map_site.xlsx
+++ b/Map_site.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>js/fonctionData.js</t>
   </si>
@@ -593,6 +593,23 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">page/parcours_liste.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>click bouton liste parcours :
+tableau de tous les parcours</t>
     </r>
   </si>
 </sst>
@@ -957,7 +974,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -965,10 +982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,41 +1068,46 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+    <row r="10" spans="1:6" ht="41.25" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
+    <row r="11" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="D12" s="4" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
@@ -1093,18 +1115,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
@@ -1112,43 +1125,57 @@
         <v>19</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="D16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="4" t="s">
-        <v>5</v>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="22" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="23" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>27</v>
       </c>
     </row>

--- a/Map_site.xlsx
+++ b/Map_site.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>js/fonctionData.js</t>
   </si>
@@ -349,9 +349,6 @@
     </r>
   </si>
   <si>
-    <t>??</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">fonction/verif_inscription.php
 </t>
@@ -611,13 +608,189 @@
       <t>click bouton liste parcours :
 tableau de tous les parcours</t>
     </r>
+  </si>
+  <si>
+    <t>contact.php</t>
+  </si>
+  <si>
+    <t>saisi_parcours_suivant_chemin.php</t>
+  </si>
+  <si>
+    <t>editer_fiche_parcours_pdf.php</t>
+  </si>
+  <si>
+    <t>integrer_trace_gps.php</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">page/parcours.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>click bouton création parcours :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">form/parcours.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Au chargement du document : 
+formulaire renseigné avec données du parcours</t>
+    </r>
+  </si>
+  <si>
+    <t>form/centre_equestre.php</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">page/centre_equestre.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>création, modification, suppression</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>page/zone_allure.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+création, modification, suppression</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">fonction/verif_zone_allure.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vérification puis insert, update, delete en base de données</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">page/troncon.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>click bouton création parcours :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">form/troncon.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Au chargement du document : 
+formulaire renseigné avec données du parcours</t>
+    </r>
+  </si>
+  <si>
+    <t>profil_elevation.php</t>
+  </si>
+  <si>
+    <t>visualisation_3D.php</t>
+  </si>
+  <si>
+    <t>Mes parcours ???</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -661,6 +834,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -682,7 +877,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -700,6 +895,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -974,7 +1178,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -982,10 +1186,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,7 +1235,7 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="4"/>
     </row>
@@ -1039,13 +1243,13 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>11</v>
@@ -1055,10 +1259,10 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>8</v>
@@ -1071,112 +1275,176 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+    <row r="13" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
+    <row r="14" spans="1:6" ht="41.25" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="D16" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="14.45" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="2:6" ht="14.45" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="D25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="D26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="D27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="33" spans="1:1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="D12" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B14" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="23" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Map_site.xlsx
+++ b/Map_site.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE424B87-44B4-4178-9FBD-7A1982F176E3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
   <si>
     <t>js/fonctionData.js</t>
   </si>
@@ -42,24 +43,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">index.html
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>page d'accueil
-affichage par défaut de la carte avec de tous les parcours et centres équestres
-affichage des critères de filtre</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">fonction/recup_data_centres_equestres.php
 </t>
     </r>
@@ -108,38 +91,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">page/point_interet.php
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>création, modification, suppression</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>page/point_vigilance.php</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-création, modification, suppression</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">fonction/verif_inscription.php
 </t>
     </r>
@@ -156,38 +107,6 @@
   </si>
   <si>
     <r>
-      <t>fonction/verif_point_interet.php</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-vérification puis insert, update, delete en base de données</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">fonction/verif_point_vigilance.php
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>vérification puis insert, update, delete en base de données</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">fonction/verif_upload_image.php
 </t>
     </r>
@@ -199,40 +118,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>vérification fichier photo  avant chargement sur serveur</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">fonction/verif_upload_image.php
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>vérification fichier photo avant chargement sur serveur</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">fonction/recup_data_filtre.php
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Click bouton filtre &amp; via ajax :
-exécution de la requête de filtre sur les parcours</t>
     </r>
   </si>
   <si>
@@ -271,23 +157,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">fonction/verif_connexion.php
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>click bouton &amp; via ajax :
-vérification login / password de connexion</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">include/header.php
 </t>
     </r>
@@ -326,6 +195,195 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">fonction/verif_inscription.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vérification puis insert en base de données</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">form/profil.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Au chargement du document :</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>formulaire vide</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">debug.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>page de debug :liste des variables de sessions et contenu
+configuration de l'environnent système</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>contact.php</t>
+  </si>
+  <si>
+    <t>saisi_parcours_suivant_chemin.php</t>
+  </si>
+  <si>
+    <t>editer_fiche_parcours_pdf.php</t>
+  </si>
+  <si>
+    <t>integrer_trace_gps.php</t>
+  </si>
+  <si>
+    <t>profil_elevation.php</t>
+  </si>
+  <si>
+    <t>visualisation_3D.php</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">form/centre_equestre.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Au chargement du document : 
+formulaire renseigné avec données du centre équestre dont le membre est responsable</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">fonction/verif_centre_equestre.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vérification puis update en base de données</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">fonction/verif_parcours.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vérification puis insert en base de données</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">form/parcours.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Au chargement du document : 
+formulaire vide</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">form/parcours.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Au chargement du document : 
+formulaire renseigné avec données du parcours</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <i/>
         <sz val="11"/>
@@ -345,23 +403,61 @@
         <scheme val="minor"/>
       </rPr>
       <t>Au chargement du document index.html :
-chargement de tous les centres équestres et parcours</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">fonction/verif_inscription.php
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>vérification puis insert en base de données</t>
+chargement de tous les centres équestres et</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tous les parcours </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pour affichage sur la page d'accueil</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">page/parcours_edition.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">click sur un parcours de la liste du proprio :
+modification / suppression d'un parcours
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">fonction/verif_parcours.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vérification puis update, delete en base de données</t>
     </r>
   </si>
   <si>
@@ -377,13 +473,89 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Au chargement du document :</t>
+      <t>Au chargement du document : 
+formulaire renseigné avec données du membre connecté</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">fonction/verif_connexion.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">click bouton </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>connexion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &amp; via ajax :
+vérification login / password de connexion</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">page/centre_equestre.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">click bouton </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mise à jour centre équestre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -394,45 +566,123 @@
     <r>
       <rPr>
         <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>formulaire vide</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>fonction/deconnexion.php
-c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lick bouton déconnexion :
-déconnexion du membre</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>page/inscription.php
-c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lick bouton inscription :</t>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>modification des données du centre équestre</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">page/parcours_edition.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">click bouton </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Création parcours</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :
+création d'un parcours
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">page/parcours_liste.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>click bouton</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Liste parcours</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :
+tableau de tous les parcours en consultation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">page/profil.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">click bouton </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mon profil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :</t>
     </r>
     <r>
       <rPr>
@@ -454,23 +704,54 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>création du profil</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">page/profil.php
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>click bouton mon profil :</t>
+      <t>consultation, modification, suppression du profil</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">page/inscription.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">lick bouton </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Inscription</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :</t>
     </r>
     <r>
       <rPr>
@@ -492,25 +773,173 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>modification, suppression du profil</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">form/profil.php
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Au chargement du document : 
-formulaire renseigné avec données du membre</t>
-    </r>
+      <t>création du profil</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">fonction/deconnexion.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">lick bouton </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Déconnexion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :
+déconnexion du membre</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">fonction/recup_data_filtre.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Click bouton du filtre </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rechercher</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &amp; via ajax :
+exécution de la requête de filtre sur les parcours</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>page/parcours.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>click sur un parcours de la liste du filtre :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">consultation des informations d'un parcours,
+affichage d'un </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>parcours unique</t>
+    </r>
+  </si>
+  <si>
+    <t>js/map_parcours.js</t>
+  </si>
+  <si>
+    <t>HEADER</t>
+  </si>
+  <si>
+    <t>BODY</t>
+  </si>
+  <si>
+    <t>FOOTER</t>
   </si>
   <si>
     <r>
@@ -531,7 +960,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>event avec timer qui boucle et s'exécuterégulièrement</t>
+      <t>event avec timer qui boucle et s'exécuter régulièrement</t>
     </r>
     <r>
       <rPr>
@@ -558,70 +987,413 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">index.html
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>page d'accueil
+affichage par défaut de la carte avec :
+tous les parcours
+tous les centres équestres
+affichage des critères de filtre sur les parcours</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">fonction/recup_data_troncons_parcours.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chargement des tronçons du parcours</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">fonction/recup_data_points_parcours.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chargement des points de vigilances et d'intérêts du parcours</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">debug.php
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>page de debug :liste des variables de sessions et contenu
-configuration de l'environnent système</t>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">page/parcours_proprio.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">click bouton </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mes parcours</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tableau de tous les parcours créé par le membre connecté</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">form/troncon.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Au chargement du document : 
+formulaire vide</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">page/troncon.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">click bouton </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Création troncon :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+création d'1 ou plusieurs tronçons</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">fonction/verif_troncon.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vérification puis insert en base de données</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">page/point_interet.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">click bouton </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Création point d'intérêt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">page/parcours_liste.php
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>click bouton liste parcours :
-tableau de tous les parcours</t>
-    </r>
-  </si>
-  <si>
-    <t>contact.php</t>
-  </si>
-  <si>
-    <t>saisi_parcours_suivant_chemin.php</t>
-  </si>
-  <si>
-    <t>editer_fiche_parcours_pdf.php</t>
-  </si>
-  <si>
-    <t>integrer_trace_gps.php</t>
-  </si>
-  <si>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>création d'1 ou plusieurs points</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>form/point_interet.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Au chargement du document : 
+formulaire vide</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>fonction/verif_point_interet.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+vérification puis insert en base de données</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">fonction/verif_upload_image.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vérification fichier photo  avant chargement sur serveur</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">page/point_vigilance.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">click bouton </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Création point de vigilance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :
+création d'1 ou plusieurs points</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">form/point_vigilance.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Au chargement du document : 
+formulaire vide</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">fonction/verif_point_vigilance.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vérification puis insert en base de données</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">fonction/verif_upload_image.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vérification fichier photo avant chargement sur serveur</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>page/zone_allure.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+création d'1 ou plusieurs zones</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>form/zone_allure.php</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -631,36 +1403,9 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">page/parcours.php
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>click bouton création parcours :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">
 </t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">form/parcours.php
-</t>
-    </r>
     <r>
       <rPr>
         <sz val="8"/>
@@ -670,61 +1415,20 @@
         <scheme val="minor"/>
       </rPr>
       <t>Au chargement du document : 
-formulaire renseigné avec données du parcours</t>
-    </r>
-  </si>
-  <si>
-    <t>form/centre_equestre.php</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">page/centre_equestre.php
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>création, modification, suppression</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>page/zone_allure.php</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-création, modification, suppression</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">fonction/verif_zone_allure.php
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>vérification puis insert, update, delete en base de données</t>
-    </r>
-  </si>
-  <si>
+formulaire vide</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fonction/verif_zone_allure.php</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -734,6 +1438,31 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vérification puis insert en base de données</t>
+    </r>
+  </si>
+  <si>
+    <t>Notation et commentaire des parcours effectués</t>
+  </si>
+  <si>
+    <t>Membre : Notation et commentaire des parcours effectués</t>
+  </si>
+  <si>
+    <t>Membre : Signale un point de vigilance sur un parcours effectué</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">page/troncon.php
 </t>
     </r>
@@ -745,18 +1474,142 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>click bouton création parcours :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
+      <t xml:space="preserve">click bouton </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Modification / Suppression troncon :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-</t>
+modification, suppression d'1 ou plusieurs tronçons</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>page/zone_allure.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Modification / Suppression d'1 ou plusieurs zones</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">page/point_interet.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">click bouton </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Modification / Suppression point d'intérêt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>modification, suppression  d'1 ou plusieurs points</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">page/point_vigilance.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">click bouton </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Modification / Suppression point de vigilance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :
+modification, suppression  d'1 ou plusieurs points</t>
     </r>
   </si>
   <si>
@@ -773,24 +1626,198 @@
         <scheme val="minor"/>
       </rPr>
       <t>Au chargement du document : 
-formulaire renseigné avec données du parcours</t>
-    </r>
-  </si>
-  <si>
-    <t>profil_elevation.php</t>
-  </si>
-  <si>
-    <t>visualisation_3D.php</t>
-  </si>
-  <si>
-    <t>Mes parcours ???</t>
+formulaire renseigné avec données</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>form/point_interet.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Au chargement du document : 
+formulaire renseigné avec données</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">form/point_vigilance.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Au chargement du document : 
+formulaire renseigné avec données</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>form/zone_allure.php</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Au chargement du document : 
+formulaire renseigné avec données</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">fonction/verif_troncon.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vérification puis update, delete en base de données</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>fonction/verif_point_interet.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+vérification puis update, delete en base de données</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">fonction/verif_point_vigilance.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vérification puis update, delete en base de données</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fonction/verif_zone_allure.php</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vérification puis update, delete en base de données</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">fonction/verif_upload_image.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vérification fichier photo  avant chargement ou supression sur serveur</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">fonction/verif_upload_image.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vérification fichier photo avant chargement ou suppression sur serveur</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -856,13 +1883,63 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -877,7 +1954,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -906,6 +1983,35 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1178,276 +2284,485 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="58.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="36.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="42.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="43.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.5546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="35.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
-      </c>
+    <row r="1" spans="1:9" ht="39" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A2" s="11"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" ht="39" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" ht="39" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="4" t="s">
-        <v>23</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="39" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" ht="39" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" ht="39" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="7" t="s">
+      <c r="C21" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="49.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="11"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
+      <c r="D22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="1"/>
+      <c r="E26" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="39" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
+      <c r="B28" s="18"/>
+      <c r="D28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
+      <c r="B29" s="18"/>
+      <c r="D29" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="11"/>
+      <c r="B30" s="18"/>
+      <c r="D30" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="11"/>
+      <c r="B31" s="18"/>
+      <c r="D31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
+      <c r="B32" s="18"/>
+      <c r="D32" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="11"/>
+      <c r="B33" s="20"/>
+      <c r="D33" s="8"/>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="11"/>
+      <c r="B34" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="D16" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="2:6" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="D25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="D26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="4" t="s">
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="38" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="D27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="33" spans="1:1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="B38" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:B20"/>
+    <mergeCell ref="B21:B32"/>
+    <mergeCell ref="A1:A34"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Map_site.xlsx
+++ b/Map_site.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
   <si>
     <t>js/fonctionData.js</t>
   </si>
@@ -194,42 +194,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">debug.php
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>page de debug :liste des variables de sessions et contenu
-configuration de l'environnent système</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
     <t>contact.php</t>
   </si>
   <si>
@@ -243,9 +207,6 @@
   </si>
   <si>
     <t>profil_elevation.php</t>
-  </si>
-  <si>
-    <t>visualisation_3D.php</t>
   </si>
   <si>
     <r>
@@ -263,261 +224,6 @@
       <t>Au chargement du document : 
 formulaire renseigné avec données du membre connecté</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">fonction/verif_connexion.php
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">click bouton </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>connexion</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &amp; via ajax :
-vérification login / password de connexion</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">page/profil.php
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">click bouton </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mon profil</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> :</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>consultation, modification, suppression du profil</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">page/inscription.php
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">lick bouton </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Inscription</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> :</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>création du profil</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">fonction/deconnexion.php
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">lick bouton </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Déconnexion</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> :
-déconnexion du membre</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">fonction/recup_data_filtre.php
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Click bouton du filtre </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Rechercher</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &amp; via ajax :
-exécution de la requête de filtre sur les parcours</t>
-    </r>
-  </si>
-  <si>
-    <t>js/map_parcours.js</t>
   </si>
   <si>
     <t>HEADER</t>
@@ -825,12 +531,6 @@
     </r>
   </si>
   <si>
-    <t>Notation et commentaire des parcours effectués</t>
-  </si>
-  <si>
-    <t>Membre : Notation et commentaire des parcours effectués</t>
-  </si>
-  <si>
     <t>Membre : Signale un point de vigilance sur un parcours effectué</t>
   </si>
   <si>
@@ -866,96 +566,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">page/centre_equestre.php
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">click bouton </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mon centre équestre</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> :</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>modification des données du centre équestre du membre connecté</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">page/parcours_edition.php
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">click bouton </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Créer un parcours</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> :
-création d'un parcours
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>page/zone_allure.php</t>
     </r>
     <r>
@@ -1045,9 +655,6 @@
       </rPr>
       <t>vérification puis update, delete en base de données</t>
     </r>
-  </si>
-  <si>
-    <t>page/service.php</t>
   </si>
   <si>
     <t>js/map_parcours_edition.js</t>
@@ -1243,6 +850,639 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>js/index.js</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>event avec timer qui boucle et s'exécuter régulièrement</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>redimensionnement fenêtre de filtre en fonction des données</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>js/map_index.js</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Au chargement du document index.html :
+chargement de tous les centres équestres et</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tous les parcours </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pour affichage sur la page d'accueil</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">form/parcours_edition.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Au chargement du document : 
+formulaire vide</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">fonction/verif_parcours_edition.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vérification puis insert en base de données</t>
+    </r>
+  </si>
+  <si>
+    <t>Leaflet</t>
+  </si>
+  <si>
+    <t>Jquery</t>
+  </si>
+  <si>
+    <t>Bootstrap</t>
+  </si>
+  <si>
+    <t>DataTables</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Redirige vers : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">page/parcours.php 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>click sur nom du parcours dans le tableau</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Redirige vers :</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> page/parcours.php </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>click sur nom du parcours dans le tableau</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>page/centre_equestre_liste_parcours.php</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>4.1.3</t>
+  </si>
+  <si>
+    <t>1.3.4</t>
+  </si>
+  <si>
+    <t>3.3.1</t>
+  </si>
+  <si>
+    <t>1.10.18</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">fonction/verif_connexion.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>click</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bouton Connexion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &amp; via ajax :
+vérification login / password de connexion</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">fonction/deconnexion.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lick</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bouton Déconnexion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :
+déconnexion du membre</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">page/inscription.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">lick </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bouton Inscription</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>création du profil</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">fonction/recup_data_filtre.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Click </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bouton Rechercher</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> du filtre &amp; via ajax :
+exécution de la requête de filtre sur les parcours</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">page/profil.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">click </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>menu Mon profil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>consultation, modification, suppression du profil</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">page/centre_equestre.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">click </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>menu Mon centre équestre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>modification des données du centre équestre du membre connecté</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">page/parcours_liste_all.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">click </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>menu Tous les  parcours</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :
+tableau de tous les parcours en consultation
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>css/parcours_liste.css</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">page/parcours_liste_perso.php
 </t>
     </r>
@@ -1254,7 +1494,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>click bouton</t>
+      <t xml:space="preserve">click </t>
     </r>
     <r>
       <rPr>
@@ -1265,7 +1505,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Mes parcours</t>
+      <t>menu Mes parcours</t>
     </r>
     <r>
       <rPr>
@@ -1293,311 +1533,144 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">page/parcours_edition.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">click </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>menu Créer un parcours</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :
+création d'un parcours
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">js/map_parcours.j
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fonctions d'affichage des données sur la carte (parcours et centres équestres)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">js/fonctionData.js
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fonctions d'échanges avec serveur (récupération des données via appel en ajax  aux programmes php qui requêtent la base de données)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">js/fonctionData.j
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fonctions d'échanges avec bdd via appel en ajax aux programmes php qui requêtent la base de données en select, update et insert.</t>
+    </r>
+  </si>
+  <si>
+    <t>bouton visualisation_3D.php</t>
+  </si>
+  <si>
+    <t>page/services proposés php</t>
+  </si>
+  <si>
+    <r>
       <rPr>
         <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>js/index.js</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>event avec timer qui boucle et s'exécuter régulièrement</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>redimensionnement fenêtre de filtre en fonction des données</t>
-    </r>
-  </si>
-  <si>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">debug.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>page de debug : liste des variables de sessions et contenu
+configuration de l'environnent système</t>
+    </r>
     <r>
       <rPr>
         <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>js/map_index.js</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Au chargement du document index.html :
-chargement de tous les centres équestres et</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> tous les parcours </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pour affichage sur la page d'accueil</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">page/parcours_liste_all.php
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">click bouton </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tous les  parcours</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> :
-tableau de tous les parcours en consultation
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>css/parcours_liste.css</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">form/parcours_edition.php
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Au chargement du document : 
-formulaire vide</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">fonction/verif_parcours_edition.php
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>vérification puis insert en base de données</t>
-    </r>
-  </si>
-  <si>
-    <t>Leaflet</t>
-  </si>
-  <si>
-    <t>Jquery</t>
-  </si>
-  <si>
-    <t>Bootstrap</t>
-  </si>
-  <si>
-    <t>DataTables</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Redirige vers : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">page/parcours.php 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>click sur nom du parcours dans le tableau</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Redirige vers :</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> page/parcours.php </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>click sur nom du parcours dans le tableau</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Membre : Saisi Notation et commentaire des parcours effectués</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">fonction/recup_data_commentaire.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Au chargement du document :
+chargement via ajax des commentaires et notes associés au parcours</t>
     </r>
   </si>
 </sst>
@@ -1784,7 +1857,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1810,9 +1883,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1848,10 +1918,35 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -1871,15 +1966,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2161,10 +2247,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2182,14 +2268,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>53</v>
+      <c r="A1" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>7</v>
@@ -2197,38 +2283,38 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="21"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="20"/>
       <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="25"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="1"/>
       <c r="D3" s="4" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="25"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="1"/>
       <c r="D4" s="4" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="25"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="1"/>
       <c r="D5" s="4" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>9</v>
@@ -2241,14 +2327,14 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="25"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="1"/>
       <c r="D6" s="4" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>4</v>
@@ -2257,226 +2343,227 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="11" customFormat="1" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="25"/>
+    <row r="7" spans="1:8" s="10" customFormat="1" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="40"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="12"/>
+      <c r="D7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:8" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="25"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="1"/>
       <c r="D8" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>51</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:8" s="11" customFormat="1" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="25"/>
+    <row r="9" spans="1:8" s="10" customFormat="1" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="40"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="13" t="s">
+      <c r="D9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="40"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="31" t="s">
+      <c r="E10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="25"/>
+    <row r="11" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="40"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="23" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="12"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="25"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="1"/>
       <c r="D12" s="4"/>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="25"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="1"/>
       <c r="D13" s="4"/>
       <c r="E13" s="7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="25"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="1"/>
       <c r="D14" s="4"/>
       <c r="E14" s="7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="25"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="40"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="17"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="25"/>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="40"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="8" t="s">
-        <v>41</v>
+      <c r="D16" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="25"/>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="40"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="8" t="s">
-        <v>42</v>
+      <c r="D17" s="18" t="s">
+        <v>32</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="16"/>
+    <row r="18" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="40"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="1"/>
       <c r="D18" s="8"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="17"/>
+      <c r="G18" s="16"/>
     </row>
     <row r="19" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="26" t="s">
-        <v>25</v>
+      <c r="A19" s="40"/>
+      <c r="B19" s="36" t="s">
+        <v>17</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="E19" s="9"/>
     </row>
     <row r="20" spans="1:7" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="27"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="27"/>
+        <v>62</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="40"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="4"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="4"/>
+      <c r="E21" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="33" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="40"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="8" t="s">
-        <v>40</v>
-      </c>
+      <c r="E22" s="3"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="10"/>
+      <c r="G22" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="27"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>69</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>2</v>
@@ -2484,108 +2571,124 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="28"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="1"/>
       <c r="E24" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="28"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="5" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="28"/>
-      <c r="D26" s="8" t="s">
+      <c r="A26" s="40"/>
+      <c r="B26" s="38"/>
+      <c r="D26" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="40"/>
+      <c r="B27" s="38"/>
+      <c r="D27" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="40"/>
+      <c r="B28" s="38"/>
+      <c r="D28" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="40"/>
+      <c r="B29" s="38"/>
+      <c r="D29" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="28"/>
-      <c r="D27" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="8"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="28"/>
-      <c r="D28" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="8"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="28"/>
-      <c r="D29" s="8" t="s">
-        <v>15</v>
-      </c>
       <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="28"/>
-      <c r="D30" s="8" t="s">
-        <v>16</v>
+      <c r="A30" s="40"/>
+      <c r="B30" s="38"/>
+      <c r="D30" s="27" t="s">
+        <v>71</v>
       </c>
       <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
-      <c r="B31" s="15"/>
-      <c r="D31" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
-      <c r="B32" s="15"/>
-      <c r="D32" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-    </row>
-    <row r="33" spans="1:6" s="11" customFormat="1" ht="42" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
-      <c r="B33" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-    </row>
-    <row r="36" spans="1:6" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="A31" s="40"/>
+      <c r="B31" s="14"/>
+      <c r="D31" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="40"/>
+      <c r="B32" s="22"/>
+      <c r="D32" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+    </row>
+    <row r="33" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="40"/>
+      <c r="B33" s="14"/>
+      <c r="D33" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+    </row>
+    <row r="34" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="40"/>
+      <c r="B34" s="30"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+    </row>
+    <row r="35" spans="1:6" s="10" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+      <c r="A35" s="40"/>
+      <c r="B35" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="6"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+    </row>
+    <row r="38" spans="1:6" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:B17"/>
     <mergeCell ref="B19:B30"/>
-    <mergeCell ref="A1:A33"/>
+    <mergeCell ref="A1:A35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2594,35 +2697,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>62</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Map_site.xlsx
+++ b/Map_site.xlsx
@@ -1616,9 +1616,6 @@
     <t>bouton visualisation_3D.php</t>
   </si>
   <si>
-    <t>page/services proposés php</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1655,9 +1652,6 @@
     </r>
   </si>
   <si>
-    <t>Membre : Saisi Notation et commentaire des parcours effectués</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">fonction/recup_data_commentaire.php
 </t>
@@ -1672,6 +1666,63 @@
       <t>Au chargement du document :
 chargement via ajax des commentaires et notes associés au parcours</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">fonction/verif_data_commentaire.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Click bouton </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Saisir commentaire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ou </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Supprimer commentaire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :
+ajoute ou supprime un commentaire (et note) du membre connecté  (de type cavalier) pour ce parcours  </t>
+    </r>
+  </si>
+  <si>
+    <t>page/services proposés par un centre équestr</t>
   </si>
 </sst>
 </file>
@@ -1857,7 +1908,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1939,6 +1990,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2239,7 +2296,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2247,10 +2304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2268,10 +2325,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="36" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="12" t="s">
@@ -2283,8 +2340,8 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="35"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="20"/>
       <c r="D2" s="4" t="s">
         <v>6</v>
@@ -2292,8 +2349,8 @@
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="35"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="1"/>
       <c r="D3" s="4" t="s">
         <v>59</v>
@@ -2301,8 +2358,8 @@
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="35"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="1"/>
       <c r="D4" s="4" t="s">
         <v>60</v>
@@ -2310,8 +2367,8 @@
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="35"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="1"/>
       <c r="D5" s="4" t="s">
         <v>61</v>
@@ -2327,8 +2384,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="35"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="1"/>
       <c r="D6" s="4" t="s">
         <v>63</v>
@@ -2344,8 +2401,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="10" customFormat="1" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="35"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="1"/>
       <c r="D7" s="9" t="s">
         <v>64</v>
@@ -2359,8 +2416,8 @@
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:8" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="35"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="1"/>
       <c r="D8" s="4" t="s">
         <v>65</v>
@@ -2372,8 +2429,8 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:8" s="10" customFormat="1" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="35"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="1"/>
       <c r="D9" s="11" t="s">
         <v>66</v>
@@ -2385,8 +2442,8 @@
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="35"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="1"/>
       <c r="D10" s="24" t="s">
         <v>67</v>
@@ -2400,8 +2457,8 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="35"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="1"/>
       <c r="D11" s="9"/>
       <c r="E11" s="21" t="s">
@@ -2413,8 +2470,8 @@
       <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="35"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="1"/>
       <c r="D12" s="4"/>
       <c r="E12" s="7" t="s">
@@ -2429,8 +2486,8 @@
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="35"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="1"/>
       <c r="D13" s="4"/>
       <c r="E13" s="7" t="s">
@@ -2447,8 +2504,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="35"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="1"/>
       <c r="D14" s="4"/>
       <c r="E14" s="7" t="s">
@@ -2465,8 +2522,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="35"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="1"/>
       <c r="D15" s="16"/>
       <c r="E15" s="7"/>
@@ -2474,20 +2531,18 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="35"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="42"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="18" t="s">
-        <v>74</v>
-      </c>
+      <c r="D16" s="18"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="35"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="1"/>
       <c r="D17" s="18" t="s">
         <v>32</v>
@@ -2497,7 +2552,7 @@
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="15"/>
       <c r="C18" s="1"/>
       <c r="D18" s="8"/>
@@ -2506,8 +2561,8 @@
       <c r="G18" s="16"/>
     </row>
     <row r="19" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="36" t="s">
+      <c r="A19" s="42"/>
+      <c r="B19" s="38" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -2516,179 +2571,199 @@
       <c r="E19" s="9"/>
     </row>
     <row r="20" spans="1:7" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="37"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D20" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="1:7" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="37"/>
+      <c r="E20" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="42"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="4"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>70</v>
-      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="7"/>
       <c r="G21" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="33" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="37"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="33" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="42"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="32"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="3"/>
+      <c r="E22" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="F22" s="7"/>
-      <c r="G22" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="5" t="s">
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" s="35" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="42"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="42"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="42"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D25" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="1"/>
-      <c r="E24" s="4" t="s">
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="42"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="1"/>
+      <c r="E26" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="5" t="s">
+    <row r="27" spans="1:7" ht="41.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="42"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="38"/>
-      <c r="D26" s="27" t="s">
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="42"/>
+      <c r="B28" s="40"/>
+      <c r="D28" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
-      <c r="B27" s="38"/>
-      <c r="D27" s="27" t="s">
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="42"/>
+      <c r="B29" s="40"/>
+      <c r="D29" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="8"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
-      <c r="B28" s="38"/>
-      <c r="D28" s="27" t="s">
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="42"/>
+      <c r="B30" s="40"/>
+      <c r="D30" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="8"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="38"/>
-      <c r="D29" s="27" t="s">
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="42"/>
+      <c r="B31" s="40"/>
+      <c r="D31" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="8"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
-      <c r="B30" s="38"/>
-      <c r="D30" s="27" t="s">
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="42"/>
+      <c r="B32" s="40"/>
+      <c r="D32" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="F30" s="8"/>
-    </row>
-    <row r="31" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
-      <c r="B31" s="14"/>
-      <c r="D31" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
-      <c r="B32" s="22"/>
-      <c r="D32" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-    </row>
-    <row r="33" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="42"/>
       <c r="B33" s="14"/>
       <c r="D33" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-    </row>
-    <row r="34" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
-      <c r="B34" s="30"/>
-      <c r="D34" s="18"/>
+        <v>35</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="42"/>
+      <c r="B34" s="22"/>
+      <c r="D34" s="18" t="s">
+        <v>75</v>
+      </c>
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
     </row>
-    <row r="35" spans="1:6" s="10" customFormat="1" ht="42" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
-      <c r="B35" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>42</v>
-      </c>
+    <row r="35" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="42"/>
+      <c r="B35" s="14"/>
       <c r="D35" s="18" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
     </row>
-    <row r="38" spans="1:6" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" s="6"/>
+    <row r="36" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="42"/>
+      <c r="B36" s="30"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+    </row>
+    <row r="37" spans="1:6" s="10" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+      <c r="A37" s="42"/>
+      <c r="B37" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+    </row>
+    <row r="40" spans="1:6" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:B17"/>
-    <mergeCell ref="B19:B30"/>
-    <mergeCell ref="A1:A35"/>
+    <mergeCell ref="B19:B32"/>
+    <mergeCell ref="A1:A37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Map_site.xlsx
+++ b/Map_site.xlsx
@@ -1108,9 +1108,6 @@
     </r>
   </si>
   <si>
-    <t>page/centre_equestre_liste_parcours.php</t>
-  </si>
-  <si>
     <t>Version</t>
   </si>
   <si>
@@ -1722,7 +1719,45 @@
     </r>
   </si>
   <si>
-    <t>page/services proposés par un centre équestr</t>
+    <r>
+      <t xml:space="preserve">page/centre_equestre_liste_all.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">click </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>menu Tous les  centres équestres</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :
+tableau de tous les centres équestres en consultation</t>
+    </r>
+  </si>
+  <si>
+    <t>page/services proposés par un centre équestre</t>
   </si>
 </sst>
 </file>
@@ -1908,7 +1943,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1990,6 +2025,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2296,7 +2337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2304,10 +2345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39:D40"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2325,10 +2366,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="38" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="12" t="s">
@@ -2340,8 +2381,8 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="37"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="20"/>
       <c r="D2" s="4" t="s">
         <v>6</v>
@@ -2349,29 +2390,29 @@
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="37"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="1"/>
       <c r="D3" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
-      <c r="B4" s="37"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="1"/>
       <c r="D4" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
-      <c r="B5" s="37"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="1"/>
       <c r="D5" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>9</v>
@@ -2384,11 +2425,11 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="37"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="1"/>
       <c r="D6" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>15</v>
@@ -2401,11 +2442,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="10" customFormat="1" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="37"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="1"/>
       <c r="D7" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>33</v>
@@ -2415,355 +2456,364 @@
       </c>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:8" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="37"/>
+    <row r="8" spans="1:8" s="37" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="44"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="36"/>
+    </row>
+    <row r="9" spans="1:8" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="44"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" s="10" customFormat="1" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="44"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" s="10" customFormat="1" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="11" t="s">
+      <c r="E10" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="44"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:8" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="9" t="s">
+      <c r="E11" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="21" t="s">
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="44"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F12" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:8" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="37"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="44"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="1"/>
       <c r="D13" s="4"/>
       <c r="E13" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="37"/>
+        <v>23</v>
+      </c>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" ht="41.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="44"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="1"/>
       <c r="D14" s="4"/>
       <c r="E14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="44"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H15" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
-      <c r="B16" s="37"/>
+    <row r="16" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="44"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="18"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="37"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="18" t="s">
-        <v>32</v>
-      </c>
+      <c r="D17" s="18"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
-      <c r="B18" s="15"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="44"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="8"/>
+      <c r="D18" s="18" t="s">
+        <v>32</v>
+      </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="16"/>
-    </row>
-    <row r="19" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
-      <c r="B19" s="38" t="s">
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="44"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="16"/>
+    </row>
+    <row r="20" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="44"/>
+      <c r="B20" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:7" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="26" t="s">
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="44"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="9" t="s">
+      <c r="E21" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="9" t="s">
+    <row r="22" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="44"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="33" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="1:7" s="35" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="34"/>
+    <row r="23" spans="1:7" s="33" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="44"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="6"/>
       <c r="E23" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
-      <c r="B24" s="39"/>
+    <row r="24" spans="1:7" s="35" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="44"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="34"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="3"/>
+      <c r="E24" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="F24" s="7"/>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:7" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="5" t="s">
+    <row r="25" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="44"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="44"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="4" t="s">
+      <c r="D26" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="1"/>
-      <c r="E26" s="4" t="s">
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="44"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="1"/>
+      <c r="E27" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="5" t="s">
+    <row r="28" spans="1:7" ht="41.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="44"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
-      <c r="B28" s="40"/>
-      <c r="D28" s="27" t="s">
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="44"/>
+      <c r="B29" s="42"/>
+      <c r="D29" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="8"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
-      <c r="B29" s="40"/>
-      <c r="D29" s="27" t="s">
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="44"/>
+      <c r="B30" s="42"/>
+      <c r="D30" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="8"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
-      <c r="B30" s="40"/>
-      <c r="D30" s="27" t="s">
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="44"/>
+      <c r="B31" s="42"/>
+      <c r="D31" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="8"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
-      <c r="B31" s="40"/>
-      <c r="D31" s="27" t="s">
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="44"/>
+      <c r="B32" s="42"/>
+      <c r="D32" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="8"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
-      <c r="B32" s="40"/>
-      <c r="D32" s="27" t="s">
-        <v>71</v>
-      </c>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
-      <c r="B33" s="14"/>
-      <c r="D33" s="18" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="44"/>
+      <c r="B33" s="42"/>
+      <c r="D33" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="44"/>
+      <c r="B34" s="14"/>
+      <c r="D34" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E34" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="19" t="s">
+      <c r="F34" s="19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="42"/>
-      <c r="B34" s="22"/>
-      <c r="D34" s="18" t="s">
+    <row r="35" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="44"/>
+      <c r="B35" s="22"/>
+      <c r="D35" s="18" t="s">
         <v>75</v>
-      </c>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-    </row>
-    <row r="35" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
-      <c r="B35" s="14"/>
-      <c r="D35" s="18" t="s">
-        <v>53</v>
       </c>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
     </row>
-    <row r="36" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
-      <c r="B36" s="30"/>
+    <row r="36" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="44"/>
+      <c r="B36" s="14"/>
       <c r="D36" s="18"/>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
     </row>
-    <row r="37" spans="1:6" s="10" customFormat="1" ht="42" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
-      <c r="B37" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>10</v>
-      </c>
+    <row r="37" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="44"/>
+      <c r="B37" s="30"/>
+      <c r="D37" s="18"/>
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
     </row>
-    <row r="40" spans="1:6" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B40" s="6"/>
+    <row r="38" spans="1:6" s="10" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+      <c r="A38" s="44"/>
+      <c r="B38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+    </row>
+    <row r="41" spans="1:6" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B1:B17"/>
-    <mergeCell ref="B19:B32"/>
-    <mergeCell ref="A1:A37"/>
+    <mergeCell ref="B1:B18"/>
+    <mergeCell ref="B20:B33"/>
+    <mergeCell ref="A1:A38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2783,7 +2833,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2791,7 +2841,7 @@
         <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2799,7 +2849,7 @@
         <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2807,7 +2857,7 @@
         <v>48</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2815,7 +2865,7 @@
         <v>47</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Map_site.xlsx
+++ b/Map_site.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
   <si>
     <t>js/fonctionData.js</t>
   </si>
@@ -103,40 +103,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>vérification fichier photo avant chargement sur serveur</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">include/config.php
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>au chargement header :
-chargement des chemins dossiers nécessaires</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">include/connect.php
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>au chargement header :
-connexion à la base de données</t>
     </r>
   </si>
   <si>
@@ -1210,75 +1176,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">page/inscription.php
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">lick </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bouton Inscription</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> :</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>création du profil</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">fonction/recup_data_filtre.php
 </t>
     </r>
@@ -1530,42 +1427,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">page/parcours_edition.php
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">click </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>menu Créer un parcours</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> :
-création d'un parcours
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">js/map_parcours.j
 </t>
     </r>
@@ -1719,6 +1580,109 @@
     </r>
   </si>
   <si>
+    <t>page/services proposés par un centre équestre</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">page/parcours_edition.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">click </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>menu Créer un parcours</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :
+création d'un parcours</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">include/connect.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>au chargementdu  header :
+connexion à la base de données</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">include/config.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>au chargement du header :
+chargement des chemins dossiers nécessaires</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Redirige vers :</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> page/parcours.php 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>click sur nom du centre équestre</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">page/centre_equestre_liste_all.php
 </t>
@@ -1753,18 +1717,108 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> :
-tableau de tous les centres équestres en consultation</t>
-    </r>
-  </si>
-  <si>
-    <t>page/services proposés par un centre équestre</t>
+tableau de tous les centres équestres en consultation
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>css/centre_equestre_liste.css</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">page/inscription.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">lick </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bouton Inscription</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">création du profil
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>css/inscription.css</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1910,6 +1964,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1943,7 +2003,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2045,6 +2105,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -2337,7 +2400,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2348,7 +2411,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2366,73 +2429,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>16</v>
+      <c r="A1" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>14</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="4"/>
+        <v>72</v>
+      </c>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="39"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="20"/>
       <c r="D2" s="4" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="39"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="1"/>
       <c r="D3" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="39"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="1"/>
       <c r="D4" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="39"/>
+    <row r="5" spans="1:8" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="45"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="1"/>
       <c r="D5" s="4" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="39"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="1"/>
       <c r="D6" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>4</v>
@@ -2442,79 +2505,81 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="10" customFormat="1" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="39"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="1"/>
       <c r="D7" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:8" s="37" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="39"/>
+    <row r="8" spans="1:8" s="37" customFormat="1" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="45"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="1"/>
       <c r="D8" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="36"/>
     </row>
     <row r="9" spans="1:8" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="39"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="1"/>
       <c r="D9" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:8" s="10" customFormat="1" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="39"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="1"/>
       <c r="D10" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:8" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="39"/>
+    <row r="11" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="45"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="1"/>
       <c r="D11" s="24" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="39"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="1"/>
       <c r="D12" s="9"/>
       <c r="E12" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F12" s="21" t="s">
         <v>0</v>
@@ -2522,60 +2587,60 @@
       <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="39"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="1"/>
       <c r="D13" s="4"/>
       <c r="E13" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="39"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="1"/>
       <c r="D14" s="4"/>
       <c r="E14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="15" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="39"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="1"/>
       <c r="D15" s="4"/>
       <c r="E15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="H15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="16" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="39"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="1"/>
       <c r="D16" s="16"/>
       <c r="E16" s="7"/>
@@ -2584,8 +2649,8 @@
       <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="39"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="1"/>
       <c r="D17" s="18"/>
       <c r="E17" s="7"/>
@@ -2593,18 +2658,18 @@
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="39"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="1"/>
       <c r="D18" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="15"/>
       <c r="C19" s="1"/>
       <c r="D19" s="8"/>
@@ -2613,9 +2678,9 @@
       <c r="G19" s="16"/>
     </row>
     <row r="20" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="40" t="s">
-        <v>17</v>
+      <c r="A20" s="45"/>
+      <c r="B20" s="41" t="s">
+        <v>15</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>1</v>
@@ -2623,60 +2688,60 @@
       <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:7" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="41"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="41"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="4"/>
       <c r="D22" s="6"/>
       <c r="E22" s="9"/>
       <c r="F22" s="7"/>
       <c r="G22" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="33" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="41"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="32"/>
       <c r="D23" s="6"/>
       <c r="E23" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" s="35" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="41"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="42"/>
       <c r="C24" s="34"/>
       <c r="D24" s="6"/>
       <c r="E24" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="41"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="34"/>
       <c r="D25" s="6"/>
       <c r="E25" s="3"/>
@@ -2684,13 +2749,13 @@
       <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="41"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="42"/>
       <c r="C26" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>2</v>
@@ -2698,114 +2763,114 @@
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
-      <c r="B27" s="42"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="43"/>
       <c r="C27" s="1"/>
       <c r="E27" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
-      <c r="B28" s="42"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="43"/>
       <c r="C28" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="42"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="43"/>
       <c r="D29" s="27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="42"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="43"/>
       <c r="D30" s="27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
-      <c r="B31" s="42"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="43"/>
       <c r="D31" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="45"/>
+      <c r="B32" s="43"/>
+      <c r="D32" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="8"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="42"/>
-      <c r="D32" s="27" t="s">
-        <v>14</v>
-      </c>
       <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
-      <c r="B33" s="42"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="43"/>
       <c r="D33" s="27" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="14"/>
       <c r="D34" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="35" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="22"/>
       <c r="D35" s="18" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
     </row>
     <row r="36" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="14"/>
       <c r="D36" s="18"/>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
     </row>
     <row r="37" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="30"/>
       <c r="D37" s="18"/>
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
     </row>
     <row r="38" spans="1:6" s="10" customFormat="1" ht="42" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
+      <c r="A38" s="45"/>
       <c r="B38" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
     </row>
     <row r="41" spans="1:6" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B41" s="6"/>
     </row>
@@ -2833,39 +2898,39 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Map_site.xlsx
+++ b/Map_site.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
   <si>
     <t>js/fonctionData.js</t>
   </si>
@@ -160,9 +160,6 @@
     </r>
   </si>
   <si>
-    <t>contact.php</t>
-  </si>
-  <si>
     <t>saisi_parcours_suivant_chemin.php</t>
   </si>
   <si>
@@ -202,36 +199,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">fonction/recup_data_troncons_parcours.php
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>chargement des tronçons du parcours</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">fonction/recup_data_points_parcours.php
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>chargement des points de vigilances et d'intérêts du parcours</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">form/troncon.php
 </t>
     </r>
@@ -249,7 +216,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">page/troncon.php
+      <t xml:space="preserve">fonction/verif_troncon.php
 </t>
     </r>
     <r>
@@ -260,104 +227,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">click bouton </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Création troncon :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-création d'1 ou plusieurs tronçons</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">fonction/verif_troncon.php
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>vérification puis insert en base de données</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">page/point_interet.php
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">click bouton </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Création point d'intérêt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> :</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>création d'1 ou plusieurs points</t>
     </r>
   </si>
   <si>
@@ -411,44 +281,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">page/point_vigilance.php
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">click bouton </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Création point de vigilance</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> :
-création d'1 ou plusieurs points</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">form/point_vigilance.php
 </t>
     </r>
@@ -497,9 +329,6 @@
     </r>
   </si>
   <si>
-    <t>Membre : Signale un point de vigilance sur un parcours effectué</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">form/centre_equestre.php
 </t>
@@ -528,61 +357,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>vérification puis update en base de données</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>page/zone_allure.php</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Modification / Suppression d'1 ou plusieurs zones</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>form/zone_allure.php</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Au chargement du document : 
-formulaire renseigné avec données</t>
     </r>
   </si>
   <si>
@@ -1018,62 +792,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Redirige vers :</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> page/parcours.php </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>click sur nom du parcours dans le tableau</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
     <t>Version</t>
   </si>
   <si>
@@ -1811,6 +1529,230 @@
         <scheme val="minor"/>
       </rPr>
       <t>css/inscription.css</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Redirige vers :</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> page/parcours_edition.php </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>click sur nom du parcours dans le tableau</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>form/zone_allure.php</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Création/ Suppression d'1 ou plusieurs zones</t>
+    </r>
+  </si>
+  <si>
+    <t>js/zone_allure.js</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">fonction/recup_data_troncons_parcours.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chargement des tronçons du parcours sur la carte</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">fonction/recup_data_points_parcours.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chargement des points de vigilances et d'intérêts du parcours  sur la carte</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">fonction/recup_data_zone_allure_parcours.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chargement des zones d'allure du parcours sur la carte</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>form/contacter.php</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">click sur </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lien contacter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> formulaire d'envoie de mail à l'administrateur du site</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">page/parcours_liste_effectue.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">click </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>menu Parcours effectués</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :
+tableau de tous les parcours effectués par le membre en consultation
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>css/parcours_liste.css</t>
     </r>
   </si>
 </sst>
@@ -1818,7 +1760,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1903,14 +1845,6 @@
       <b/>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2003,7 +1937,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2044,7 +1978,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -2054,21 +1987,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2079,7 +2008,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2108,6 +2037,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -2400,7 +2335,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2408,10 +2343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2429,53 +2364,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>14</v>
+      <c r="A1" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>13</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="38"/>
+        <v>62</v>
+      </c>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="20"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="19"/>
       <c r="D2" s="4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
-      <c r="B3" s="40"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="1"/>
       <c r="D3" s="4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="40"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="1"/>
       <c r="D4" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="40"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="1"/>
       <c r="D5" s="4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>7</v>
@@ -2488,14 +2423,14 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="40"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="1"/>
       <c r="D6" s="4" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>4</v>
@@ -2505,380 +2440,335 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="10" customFormat="1" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="40"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="1"/>
       <c r="D7" s="9" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:8" s="37" customFormat="1" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
-      <c r="B8" s="40"/>
+    <row r="8" spans="1:8" s="34" customFormat="1" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="44"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="36" t="s">
-        <v>75</v>
+      <c r="D8" s="33" t="s">
+        <v>65</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F8" s="9"/>
-      <c r="G8" s="36"/>
+      <c r="G8" s="33"/>
     </row>
     <row r="9" spans="1:8" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
-      <c r="B9" s="40"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="1"/>
       <c r="D9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:8" s="10" customFormat="1" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
-      <c r="B10" s="40"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="1"/>
       <c r="D10" s="11" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
-      <c r="B11" s="40"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="24" t="s">
-        <v>71</v>
+      <c r="D11" s="21" t="s">
+        <v>61</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
-      <c r="B12" s="40"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="1"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="21" t="s">
+      <c r="E12" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="20" t="s">
         <v>0</v>
       </c>
       <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
-      <c r="B13" s="40"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="1"/>
       <c r="D13" s="4"/>
       <c r="E13" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:8" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
-      <c r="B14" s="40"/>
+        <v>17</v>
+      </c>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="44"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="1"/>
       <c r="D14" s="4"/>
       <c r="E14" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="40"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="1"/>
       <c r="D15" s="4"/>
       <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="16" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="44"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="B17" s="40"/>
+    <row r="17" spans="1:8" s="16" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="7"/>
+      <c r="D17" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>40</v>
+      </c>
       <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="18" t="s">
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="44"/>
+      <c r="B18" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="44"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="16"/>
-    </row>
-    <row r="20" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="E19" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="44"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="6"/>
       <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:7" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="4"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="37" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="44"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="30" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="44"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="6"/>
       <c r="E22" s="9"/>
       <c r="F22" s="7"/>
       <c r="G22" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="33" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="32"/>
+        <v>58</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="44"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="9" t="s">
-        <v>68</v>
-      </c>
+      <c r="E23" s="3"/>
       <c r="F23" s="7"/>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7" s="35" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
+    <row r="24" spans="1:8" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="44"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="44"/>
       <c r="B25" s="42"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" spans="1:7" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
+      <c r="C25" s="1"/>
+      <c r="E25" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="41.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="44"/>
       <c r="B26" s="42"/>
       <c r="C26" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="1"/>
-      <c r="E27" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
-      <c r="B29" s="43"/>
-      <c r="D29" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="44"/>
+      <c r="B27" s="27"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="1:8" s="10" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="44"/>
+      <c r="B28" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+    </row>
+    <row r="31" spans="1:8" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="8"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
-      <c r="B30" s="43"/>
-      <c r="D30" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="8"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
-      <c r="B31" s="43"/>
-      <c r="D31" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="8"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="43"/>
-      <c r="D32" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="8"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
-      <c r="B33" s="43"/>
-      <c r="D33" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" s="8"/>
-    </row>
-    <row r="34" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
-      <c r="B34" s="14"/>
-      <c r="D34" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="45"/>
-      <c r="B35" s="22"/>
-      <c r="D35" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-    </row>
-    <row r="36" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="45"/>
-      <c r="B36" s="14"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-    </row>
-    <row r="37" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
-      <c r="B37" s="30"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-    </row>
-    <row r="38" spans="1:6" s="10" customFormat="1" ht="42" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
-      <c r="B38" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-    </row>
-    <row r="41" spans="1:6" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" s="6"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="17"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B1:B18"/>
-    <mergeCell ref="B20:B33"/>
-    <mergeCell ref="A1:A38"/>
+    <mergeCell ref="B1:B16"/>
+    <mergeCell ref="B18:B26"/>
+    <mergeCell ref="A1:A28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2897,40 +2787,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="28" t="s">
-        <v>51</v>
+      <c r="B1" s="25" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>47</v>
+      <c r="A2" s="25" t="s">
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>48</v>
+      <c r="A3" s="25" t="s">
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>54</v>
+      <c r="A4" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>53</v>
+      <c r="A5" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
